--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2004.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2004.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.026*"foreign" + 0.020*"exchange" + 0.017*"currency" + 0.015*"account" + 0.014*"yes" + 0.014*"import" + 0.013*"may" + 0.013*"resident" + 0.012*"control" + 0.012*"transaction"</t>
-  </si>
-  <si>
-    <t>0.023*"exchange" + 0.023*"foreign" + 0.018*"control" + 0.017*"import" + 0.016*"account" + 0.016*"nonresident" + 0.014*"currency" + 0.012*"resident" + 0.011*"payment" + 0.011*"bank"</t>
-  </si>
-  <si>
-    <t>0.001*"foreign" + 0.001*"exchange" + 0.001*"import" + 0.001*"account" + 0.001*"currency" + 0.001*"bank" + 0.001*"resident" + 0.001*"payment" + 0.001*"control" + 0.001*"transaction"</t>
-  </si>
-  <si>
-    <t>0.019*"foreign" + 0.014*"exchange" + 0.014*"import" + 0.012*"account" + 0.012*"currency" + 0.012*"resident" + 0.012*"bank" + 0.011*"nonresident" + 0.011*"yes" + 0.011*"may"</t>
-  </si>
-  <si>
-    <t>0.002*"foreign" + 0.002*"account" + 0.001*"control" + 0.001*"yes" + 0.001*"currency" + 0.001*"may" + 0.001*"exchange" + 0.001*"bank" + 0.001*"transaction" + 0.001*"nonresident"</t>
+    <t>0.062*"import" + 0.056*"export" + 0.031*"requirement" + 0.025*"license" + 0.017*"foreign" + 0.017*"equivalent" + 0.016*"may" + 0.015*"payment" + 0.015*"proceeds" + 0.014*"amount"</t>
+  </si>
+  <si>
+    <t>0.063*"yes" + 0.033*"subject" + 0.022*"import" + 0.015*"state" + 0.014*"day" + 0.013*"year" + 0.013*"custom" + 0.012*"product" + 0.010*"certain" + 0.010*"must"</t>
+  </si>
+  <si>
+    <t>0.051*"control" + 0.038*"investment" + 0.035*"capital" + 0.034*"security" + 0.033*"transaction" + 0.029*"resident" + 0.029*"nonresident" + 0.022*"purchase" + 0.021*"issue" + 0.018*"abroad"</t>
+  </si>
+  <si>
+    <t>0.052*"fund" + 0.044*"transfer" + 0.039*"international" + 0.037*"payment" + 0.030*"monetary" + 0.024*"control" + 0.019*"restriction" + 0.019*"effective" + 0.018*"limit" + 0.018*"transaction"</t>
+  </si>
+  <si>
+    <t>0.070*"foreign" + 0.058*"exchange" + 0.051*"currency" + 0.049*"account" + 0.032*"bank" + 0.023*"may" + 0.019*"domestic" + 0.019*"require" + 0.018*"rate" + 0.017*"resident"</t>
   </si>
 </sst>
 </file>
